--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail7 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,29 +3173,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>4.538042459438637e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.481302497115149</v>
+        <v>2.681481895030629e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.500451042673749</v>
+        <v>3.136087539213607e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.681481895030629e-06</v>
+        <v>0.06144953096913265</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.136087539213607e-06</v>
+        <v>0.2378219694465895</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06144953096913265</v>
+        <v>0.06023986502373038</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2378219694465895</v>
+        <v>1.761784729121926</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06023986502373038</v>
+        <v>1.590470960832682</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.697952482059192</v>
+        <v>4.180313728298612</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.590470960832682</v>
+        <v>3.310927958807345e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.180313728298612</v>
+        <v>59299365.21120207</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.310927958807345e-15</v>
+        <v>1.942826677977946e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>59299365.21120207</v>
+        <v>11.64259579283909</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.942826677977946e-06</v>
+        <v>0.0001333832671934112</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.64259579283909</v>
+        <v>9.338542510251067</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001333832671934112</v>
+        <v>1.205697279041839</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.338542510251067</v>
+        <v>0.01163213814629109</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.205697279041839</v>
+        <v>2.861030839182113</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01163213814629109</v>
+        <v>0.9574257347683948</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.861030839182113</v>
+        <v>1.763570113425889</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9574257347683948</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.763570113425889</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1985530738583469</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>3.928200975627235e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.886839927683473</v>
+        <v>2.191829853779379e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.418411448525626</v>
+        <v>3.159595624019647e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.191829853779379e-06</v>
+        <v>0.04973887876765355</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.159595624019647e-06</v>
+        <v>0.2279845920185064</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04973887876765355</v>
+        <v>0.05437290701578242</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2279845920185064</v>
+        <v>1.768456689506923</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05437290701578242</v>
+        <v>1.602802505697124</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.706055568479803</v>
+        <v>4.21620032801684</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.602802505697124</v>
+        <v>3.254805255004e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.21620032801684</v>
+        <v>63204860.07468637</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.254805255004e-15</v>
+        <v>1.838462778069521e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>63204860.07468637</v>
+        <v>13.00247288924063</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.838462778069521e-06</v>
+        <v>0.0001305644468080211</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>13.00247288924063</v>
+        <v>8.672440274736328</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001305644468080211</v>
+        <v>1.235340131233861</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.672440274736328</v>
+        <v>0.009819911374689289</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.235340131233861</v>
+        <v>2.96482514436249</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009819911374689289</v>
+        <v>0.9583899079525148</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.96482514436249</v>
+        <v>1.75363656520616</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9583899079525148</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.75363656520616</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1966710022578464</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>3.537856361323116e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.382795381188739</v>
+        <v>1.806070215510202e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1283408004732376</v>
+        <v>3.175706108662939e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.806070215510202e-06</v>
+        <v>0.03667874772832737</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.175706108662939e-06</v>
+        <v>0.214151683378689</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03667874772832737</v>
+        <v>0.04714450806479387</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.214151683378689</v>
+        <v>1.766379695140202</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04714450806479387</v>
+        <v>1.61782557906023</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.703157048830897</v>
+        <v>4.243539514761424</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.61782557906023</v>
+        <v>3.213001903053982e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.243539514761424</v>
+        <v>63865515.1990213</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.213001903053982e-15</v>
+        <v>1.820851472201059e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>63865515.1990213</v>
+        <v>13.10520511583208</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.820851472201059e-06</v>
+        <v>0.0001388701414717509</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>13.10520511583208</v>
+        <v>7.633777972871676</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001388701414717509</v>
+        <v>1.527066404637238</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.633777972871676</v>
+        <v>0.00809259724394183</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.527066404637238</v>
+        <v>3.105234023771581</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00809259724394183</v>
+        <v>0.9575337290815019</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.105234023771581</v>
+        <v>1.726677235165188</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9575337290815019</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.726677235165188</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1802498827021533</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>3.314763534370757e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.06514955351067812</v>
+        <v>1.493261718063557e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9235741449488226</v>
+        <v>3.185940182789338e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.493261718063557e-06</v>
+        <v>0.02328181354995899</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.185940182789338e-06</v>
+        <v>0.1957606957776773</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02328181354995899</v>
+        <v>0.03881634421547243</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1957606957776773</v>
+        <v>1.759907361318308</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03881634421547243</v>
+        <v>1.642699472375734</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.690719413221838</v>
+        <v>4.158338214750652</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.642699472375734</v>
+        <v>3.346014858237824e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.158338214750652</v>
+        <v>60389833.78753591</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.346014858237824e-15</v>
+        <v>1.918017224268137e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>60389833.78753591</v>
+        <v>12.20268874225263</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.918017224268137e-06</v>
+        <v>0.000159470400654265</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.20268874225263</v>
+        <v>8.525276018881264</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000159470400654265</v>
+        <v>1.589495527758373</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.525276018881264</v>
+        <v>0.01159036153584759</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.589495527758373</v>
+        <v>3.025603612459402</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01159036153584759</v>
+        <v>0.9560147607339121</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.025603612459402</v>
+        <v>1.764657844277879</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9560147607339121</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.764657844277879</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1669121672058624</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>3.211782173529898e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.06735204359997132</v>
+        <v>1.22954448369046e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.162443623832586</v>
+        <v>3.191419955694243e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.22954448369046e-06</v>
+        <v>0.01064551646859851</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.191419955694243e-06</v>
+        <v>0.1732504798411224</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01064551646859851</v>
+        <v>0.03009204596148497</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1732504798411224</v>
+        <v>1.747276409542629</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03009204596148497</v>
+        <v>1.627937886326784</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.677477950700323</v>
+        <v>3.978470509063426</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.627937886326784</v>
+        <v>3.655402442044179e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.978470509063426</v>
+        <v>55294359.41458964</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.655402442044179e-15</v>
+        <v>2.083101001933174e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>55294359.41458964</v>
+        <v>11.17626935206091</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.083101001933174e-06</v>
+        <v>0.0001456958903014329</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.17626935206091</v>
+        <v>9.808809012283582</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001456958903014329</v>
+        <v>1.200912402404081</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.808809012283582</v>
+        <v>0.01401779997335265</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.200912402404081</v>
+        <v>2.932460623492485</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01401779997335265</v>
+        <v>0.9552483381512307</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.932460623492485</v>
+        <v>1.779580114212064</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9552483381512307</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.779580114212064</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1770674500490697</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>3.186300281404512e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0917752553345469</v>
+        <v>1.031349914302343e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.186342316513584</v>
+        <v>3.193032578699934e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.031349914302343e-06</v>
+        <v>-0.0001102984089406531</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.193032578699934e-06</v>
+        <v>0.1509635116595206</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0001102984089406531</v>
+        <v>0.02276597177093232</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1509635116595206</v>
+        <v>1.678307545627856</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02276597177093232</v>
+        <v>1.613573544996246</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.595275905365423</v>
+        <v>3.836170970540068</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.613573544996246</v>
+        <v>3.931620354293933e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.836170970540068</v>
+        <v>51680514.53551175</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.931620354293933e-15</v>
+        <v>2.180883770229259e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>51680514.53551175</v>
+        <v>10.50086880455402</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.180883770229259e-06</v>
+        <v>0.0001374603128813303</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.50086880455402</v>
+        <v>10.02781158361466</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001374603128813303</v>
+        <v>1.114483043643741</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.02781158361466</v>
+        <v>0.0138225973912188</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.114483043643741</v>
+        <v>2.818684303163911</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0138225973912188</v>
+        <v>0.9554544312565745</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.818684303163911</v>
+        <v>1.785570448061215</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9554544312565745</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.785570448061215</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1897058344068178</v>
       </c>
     </row>
@@ -3821,72 +3773,66 @@
         <v>3.203080303147183e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.08580095868408107</v>
+        <v>1.031349914302343e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.19409891834587</v>
+        <v>3.191559522826605e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.031349914302343e-06</v>
+        <v>-0.00863638285927705</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.191559522826605e-06</v>
+        <v>0.1336974265994009</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.00863638285927705</v>
+        <v>0.01793716805813022</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1336974265994009</v>
+        <v>1.666129523477163</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01793716805813022</v>
+        <v>1.581251318098894</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.581788920335074</v>
+        <v>3.491750471890254</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.581251318098894</v>
+        <v>4.745490222290388e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.491750471890254</v>
+        <v>42072311.84033268</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.745490222290388e-15</v>
+        <v>2.651792097225366e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>42072311.84033268</v>
+        <v>8.399894597324687</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.651792097225366e-06</v>
+        <v>0.0001356414751692353</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.399894597324687</v>
+        <v>8.414949397807037</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001356414751692353</v>
+        <v>1.301896647008039</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.414949397807037</v>
+        <v>0.009604959142347956</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.301896647008039</v>
+        <v>3.040915407564105</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009604959142347956</v>
+        <v>0.9559225461816676</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.040915407564105</v>
+        <v>1.809976395531075</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9559225461816676</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.809976395531075</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1807807254983167</v>
       </c>
     </row>
@@ -3901,72 +3847,66 @@
         <v>3.239160331153424e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.08487887422079736</v>
+        <v>1.031349914302343e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.223862551871129</v>
+        <v>3.187745466233616e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.031349914302343e-06</v>
+        <v>-0.01454319865143456</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.187745466233616e-06</v>
+        <v>0.1236647151984049</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01454319865143456</v>
+        <v>0.01549992221761526</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1236647151984049</v>
+        <v>1.656323242194016</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01549992221761526</v>
+        <v>1.575214670916344</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.567933632611235</v>
+        <v>3.41478353313301</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.575214670916344</v>
+        <v>4.961821389681713e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.41478353313301</v>
+        <v>40065705.76351463</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.961821389681713e-15</v>
+        <v>2.78992421555798e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>40065705.76351463</v>
+        <v>7.965017265927611</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.78992421555798e-06</v>
+        <v>0.0001412272537402588</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7.965017265927611</v>
+        <v>7.842845999011698</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001412272537402588</v>
+        <v>1.505741853302466</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.842845999011698</v>
+        <v>0.008686921334950352</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.505741853302466</v>
+        <v>3.079778345471588</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008686921334950352</v>
+        <v>0.9560691740594187</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.079778345471588</v>
+        <v>1.835362054413227</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9560691740594187</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.835362054413227</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1753971133894524</v>
       </c>
     </row>
@@ -3981,72 +3921,66 @@
         <v>3.282372959636318e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09468777316861487</v>
+        <v>1.031349914302343e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.263624264138661</v>
+        <v>3.182366539459786e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.031349914302343e-06</v>
+        <v>-0.01809292952387665</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.182366539459786e-06</v>
+        <v>0.1187987101143339</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01809292952387665</v>
+        <v>0.01443914970997063</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1187987101143339</v>
+        <v>1.651494489330364</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01443914970997063</v>
+        <v>1.546481943326679</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.561288532896506</v>
+        <v>3.480020814591636</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.546481943326679</v>
+        <v>4.777534158229573e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.480020814591636</v>
+        <v>41734195.05644219</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.777534158229573e-15</v>
+        <v>2.674071398410906e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>41734195.05644219</v>
+        <v>8.321236854169797</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.674071398410906e-06</v>
+        <v>0.0001423956853347317</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8.321236854169797</v>
+        <v>8.249765211101574</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001423956853347317</v>
+        <v>1.394543727926005</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.249765211101574</v>
+        <v>0.009691254697664199</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.394543727926005</v>
+        <v>3.026899279545088</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009691254697664199</v>
+        <v>0.954590308765816</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.026899279545088</v>
+        <v>1.809962302738469</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.954590308765816</v>
+        <v>7</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.809962302738469</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1755757380664653</v>
       </c>
     </row>
@@ -4061,72 +3995,66 @@
         <v>3.327975993008988e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1119366684834475</v>
+        <v>1.034109681592817e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.303570025931899</v>
+        <v>3.176012340964242e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.034109681592817e-06</v>
+        <v>-0.02016610418851045</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.176012340964242e-06</v>
+        <v>0.1160106716886098</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02016610418851045</v>
+        <v>0.0138647046210561</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1160106716886098</v>
+        <v>1.657613867155765</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0138647046210561</v>
+        <v>1.536649986714213</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.568872073990376</v>
+        <v>3.682386036733163</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.536649986714213</v>
+        <v>4.266864522417527e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.682386036733163</v>
+        <v>49628333.93193115</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.266864522417527e-15</v>
+        <v>2.276384888692197e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>49628333.93193115</v>
+        <v>10.50916583621407</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.276384888692197e-06</v>
+        <v>0.0001403372588365592</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10.50916583621407</v>
+        <v>9.342899790186609</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001403372588365592</v>
+        <v>1.172808592946849</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.342899790186609</v>
+        <v>0.01225000795698801</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.172808592946849</v>
+        <v>2.88167271438085</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01225000795698801</v>
+        <v>0.9549496055516205</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.88167271438085</v>
+        <v>1.79802340576875</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9549496055516205</v>
+        <v>16</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.79802340576875</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1837832648371551</v>
       </c>
     </row>
@@ -4141,72 +4069,66 @@
         <v>3.374206284687375e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1339025916281468</v>
+        <v>1.043436422374233e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.340156496688132</v>
+        <v>3.169018249879295e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.043436422374233e-06</v>
+        <v>-0.02148541045169872</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.169018249879295e-06</v>
+        <v>0.1138466588241051</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02148541045169872</v>
+        <v>0.01342245890899467</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1138466588241051</v>
+        <v>1.661030976587602</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01342245890899467</v>
+        <v>1.548842158056312</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.576524744181403</v>
+        <v>3.963557813885125</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.548842158056312</v>
+        <v>3.553994112663452e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.963557813885125</v>
+        <v>59490030.07024009</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.553994112663452e-15</v>
+        <v>1.899410357840248e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>59490030.07024009</v>
+        <v>12.57781147509325</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.899410357840248e-06</v>
+        <v>0.0001432805842475869</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>12.57781147509325</v>
+        <v>9.859950034821708</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001432805842475869</v>
+        <v>1.118681738269666</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.859950034821708</v>
+        <v>0.01392953991240683</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.118681738269666</v>
+        <v>2.802826754944929</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01392953991240683</v>
+        <v>0.9551446629695354</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.802826754944929</v>
+        <v>1.822871982148812</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9551446629695354</v>
+        <v>16</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.822871982148812</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1851457951405664</v>
       </c>
     </row>
@@ -4221,72 +4143,66 @@
         <v>3.419917096015628e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1598077366782251</v>
+        <v>1.049732600584527e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.37208705036714</v>
+        <v>3.161529400789785e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.049732600584527e-06</v>
+        <v>-0.02259359337485999</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.161529400789785e-06</v>
+        <v>0.1117590268779736</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02259359337485999</v>
+        <v>0.01300024115884838</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1117590268779736</v>
+        <v>1.745092310011295</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01300024115884838</v>
+        <v>1.546506570713307</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.667366873087031</v>
+        <v>4.013862643277402</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.546506570713307</v>
+        <v>3.465469536968288e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.013862643277402</v>
+        <v>60151406.43673092</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.465469536968288e-15</v>
+        <v>1.946558467715051e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>60151406.43673092</v>
+        <v>12.53873310249747</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.946558467715051e-06</v>
+        <v>0.0001668114511829959</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>12.53873310249747</v>
+        <v>8.745397389344813</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001668114511829959</v>
+        <v>1.51337216419245</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.745397389344813</v>
+        <v>0.01275806932209017</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.51337216419245</v>
+        <v>2.925054675820221</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01275806932209017</v>
+        <v>0.958943313010667</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.925054675820221</v>
+        <v>1.717278327183848</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.958943313010667</v>
+        <v>15</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.717278327183848</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.162921363552661</v>
       </c>
     </row>
@@ -4301,72 +4217,66 @@
         <v>3.463727514992197e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1905762682694171</v>
+        <v>1.051970354477458e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.398001387674736</v>
+        <v>3.153532718547014e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.051970354477458e-06</v>
+        <v>-0.02391267992331328</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.153532718547014e-06</v>
+        <v>0.1093922538684709</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02391267992331328</v>
+        <v>0.01253783255402434</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1093922538684709</v>
+        <v>1.738436697278157</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01253783255402434</v>
+        <v>1.578961853620051</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.662149553212344</v>
+        <v>3.988228743932697</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.578961853620051</v>
+        <v>2.690712036906322e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.988228743932697</v>
+        <v>78999562.94264412</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.690712036906322e-15</v>
+        <v>1.483646893064068e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>78999562.94264412</v>
+        <v>16.79254801555918</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.483646893064068e-06</v>
+        <v>0.0001758946379384053</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>16.79254801555918</v>
+        <v>8.750373056890989</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001758946379384053</v>
+        <v>1.570636431546907</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.750373056890989</v>
+        <v>0.01346808156900716</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.570636431546907</v>
+        <v>2.90633464374345</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01346808156900716</v>
+        <v>0.9580238046745723</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.90633464374345</v>
+        <v>1.702759473650959</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9580238046745723</v>
+        <v>16</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.702759473650959</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1608232155276617</v>
       </c>
     </row>
@@ -4381,72 +4291,66 @@
         <v>3.504151348762772e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2275342981036777</v>
+        <v>1.054593717971058e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.415452607558532</v>
+        <v>3.144910697678562e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.054593717971058e-06</v>
+        <v>-0.02558908096280956</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.144910697678562e-06</v>
+        <v>0.1067555186745318</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02558908096280956</v>
+        <v>0.01205088350769526</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1067555186745318</v>
+        <v>1.741116982510473</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01205088350769526</v>
+        <v>1.701132800902077</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.666121575334586</v>
+        <v>4.134843098829415</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.701132800902077</v>
+        <v>2.50327908680677e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.134843098829415</v>
+        <v>81703240.00182717</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.50327908680677e-15</v>
+        <v>1.430679580595798e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>81703240.00182717</v>
+        <v>16.71043784676249</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.430679580595798e-06</v>
+        <v>0.0001477246634246441</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>16.71043784676249</v>
+        <v>9.450495064193158</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001477246634246441</v>
+        <v>1.220222855386513</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.450495064193158</v>
+        <v>0.01319356400900062</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.220222855386513</v>
+        <v>2.881495828813799</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01319356400900062</v>
+        <v>0.958203285677008</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.881495828813799</v>
+        <v>1.758398423902412</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.958203285677008</v>
+        <v>16</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.758398423902412</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1822825569926974</v>
       </c>
     </row>
@@ -4461,72 +4365,66 @@
         <v>3.540722972452536e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2701167629814382</v>
+        <v>1.060245470887986e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.422405454980067</v>
+        <v>3.135618060097261e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.060245470887986e-06</v>
+        <v>-0.02706066696471603</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.135618060097261e-06</v>
+        <v>0.1046156373701643</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02706066696471603</v>
+        <v>0.0116764618180651</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1046156373701643</v>
+        <v>1.741222793659863</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0116764618180651</v>
+        <v>1.807210913102806</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.664033123483113</v>
+        <v>4.135048843229029</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.807210913102806</v>
+        <v>2.503029985594575e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.135048843229029</v>
+        <v>82319968.04371423</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.503029985594575e-15</v>
+        <v>1.420197051218644e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>82319968.04371423</v>
+        <v>16.96197577790617</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.420197051218644e-06</v>
+        <v>0.0001432367818850517</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>16.96197577790617</v>
+        <v>9.633604638623421</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001432367818850517</v>
+        <v>1.190800892504636</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.633604638623421</v>
+        <v>0.01329328124139816</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.190800892504636</v>
+        <v>2.789468903534106</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01329328124139816</v>
+        <v>0.9594080447699369</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.789468903534106</v>
+        <v>1.743572207781024</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9594080447699369</v>
+        <v>21</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.743572207781024</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1911817494170698</v>
       </c>
     </row>
@@ -4541,72 +4439,66 @@
         <v>3.573571036709517e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3166028024726835</v>
+        <v>1.065474081562848e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.418862673637828</v>
+        <v>3.125796226639834e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.065474081562848e-06</v>
+        <v>-0.02809263962397885</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.125796226639834e-06</v>
+        <v>0.1030176198359971</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02809263962397885</v>
+        <v>0.01140171762250302</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1030176198359971</v>
+        <v>1.738515566498648</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01140171762250302</v>
+        <v>1.757386112342587</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.658421420823202</v>
+        <v>4.122325748515431</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.757386112342587</v>
+        <v>2.518504469910296e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.122325748515431</v>
+        <v>80426201.46590465</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.518504469910296e-15</v>
+        <v>1.451781294366772e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>80426201.46590465</v>
+        <v>16.29062853545806</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.451781294366772e-06</v>
+        <v>0.000140093320596673</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>16.29062853545806</v>
+        <v>8.914053398203302</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000140093320596673</v>
+        <v>1.245474326595886</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.914053398203302</v>
+        <v>0.01113186400512868</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.245474326595886</v>
+        <v>2.897719093674435</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01113186400512868</v>
+        <v>0.9596570852907605</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.897719093674435</v>
+        <v>1.734325253534575</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9596570852907605</v>
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.734325253534575</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1907893360625341</v>
       </c>
     </row>
@@ -4983,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.370725064643915</v>
+        <v>1.388054588401704</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.771345641403688</v>
@@ -5072,7 +4964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.485872245539795</v>
+        <v>1.511092003058031</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.009738922799816</v>
@@ -5161,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.46552537000894</v>
+        <v>1.477047693038905</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.098175346578139</v>
@@ -5250,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.458634171748236</v>
+        <v>1.457930510952661</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.870488526507327</v>
@@ -5339,7 +5231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529686323446474</v>
+        <v>1.511226591173701</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.913184557747766</v>
@@ -5428,7 +5320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584691190547861</v>
+        <v>1.578531954867691</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.934320854280303</v>
@@ -5517,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641489973548536</v>
+        <v>1.643734554614033</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.10258946649111</v>
@@ -5606,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661750017944699</v>
+        <v>1.65827286977942</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.027845282107839</v>
@@ -5695,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647049651938951</v>
+        <v>1.643805162193131</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.992142165777189</v>
@@ -5784,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643405559038991</v>
+        <v>1.634170861699772</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.920015149294896</v>
@@ -5873,7 +5765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.64889095709412</v>
+        <v>1.641745654394952</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.239997046690655</v>
@@ -5962,7 +5854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645607191298714</v>
+        <v>1.639370978895309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.073624808437602</v>
@@ -6051,7 +5943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610560819526202</v>
+        <v>1.611916725114618</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.4146737344619</v>
@@ -6140,7 +6032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.279086439411444</v>
+        <v>1.263387218740793</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.388158292748487</v>
@@ -6229,7 +6121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.254329418355875</v>
+        <v>1.247729647443554</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.427744783898493</v>
@@ -6318,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.25887525323219</v>
+        <v>1.26112014634075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.448061514124539</v>
@@ -6407,7 +6299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.268812129688622</v>
+        <v>1.260879286180401</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.479314655181494</v>
@@ -6496,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.264689318309918</v>
+        <v>1.26457619303452</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.49543432889035</v>
@@ -6585,7 +6477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.269809790329153</v>
+        <v>1.270564282141988</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.513255799046024</v>
@@ -6674,7 +6566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.274373528180827</v>
+        <v>1.277412476571228</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.517517968657232</v>
@@ -6763,7 +6655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.276506783469798</v>
+        <v>1.277995364119375</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.519883363508031</v>
@@ -6852,7 +6744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.279309969334334</v>
+        <v>1.281228625082271</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.523808021905543</v>
@@ -6941,7 +6833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.279394116447384</v>
+        <v>1.281058474576555</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.523978278053822</v>
@@ -7030,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.281708242810111</v>
+        <v>1.283760534178149</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.526300491994023</v>
@@ -7119,7 +7011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.284338524350256</v>
+        <v>1.288011324311568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.530098661218712</v>
@@ -7208,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.283064020433102</v>
+        <v>1.286173422064544</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.531299430310093</v>
@@ -7297,7 +7189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.283542764522902</v>
+        <v>1.287230780899049</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.532209057726072</v>
@@ -7386,7 +7278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.292323182733205</v>
+        <v>1.29445950217208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.546092188510575</v>
@@ -7475,7 +7367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.4424698176084</v>
+        <v>1.458193008641658</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.982999780696265</v>
@@ -7564,7 +7456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.499789420049401</v>
+        <v>1.515433459682671</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.959241453099948</v>
@@ -7653,7 +7545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.430925975916331</v>
+        <v>1.433576578506267</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.819437532963169</v>
@@ -7742,7 +7634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.455977138996009</v>
+        <v>1.472101972587281</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.744955134160199</v>
@@ -7831,7 +7723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.466607726295738</v>
+        <v>1.476455961607215</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.796331242999496</v>
@@ -7920,7 +7812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.479899412801828</v>
+        <v>1.487772208303454</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.755768304849076</v>
@@ -8009,7 +7901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.470022138746437</v>
+        <v>1.476373562859426</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.724316880196863</v>
@@ -8098,7 +7990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466368485389032</v>
+        <v>1.472195867562203</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.734841487736285</v>
@@ -8187,7 +8079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.467889786740027</v>
+        <v>1.471974119814516</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.723950348804359</v>
@@ -8276,7 +8168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462132582720287</v>
+        <v>1.465444750150599</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.709992568662659</v>
@@ -8365,7 +8257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.452588599987548</v>
+        <v>1.45840780417576</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.712707472441441</v>
@@ -8454,7 +8346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.413617794688774</v>
+        <v>1.417486969247276</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.724426034094764</v>
@@ -8543,7 +8435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.432917827713586</v>
+        <v>1.442219143545996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.762940983459899</v>
@@ -8632,7 +8524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.443860776526113</v>
+        <v>1.455734113379141</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.747727921365133</v>
@@ -8721,7 +8613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.448255439442156</v>
+        <v>1.460996732665857</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.772443936804271</v>
@@ -8810,7 +8702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.449846307043966</v>
+        <v>1.462345175865388</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.779660207273222</v>
@@ -8899,7 +8791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.453695351534678</v>
+        <v>1.461978665245436</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.754049943055997</v>
@@ -8988,7 +8880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.583054138981168</v>
+        <v>1.594184695648411</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.207493417582475</v>
@@ -9077,7 +8969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597447290981708</v>
+        <v>1.605752708452133</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.125671604697371</v>
@@ -9166,7 +9058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530253160620421</v>
+        <v>1.538246453078536</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.997234614939864</v>
@@ -9255,7 +9147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.489471527145579</v>
+        <v>1.504278727020688</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.010105491996168</v>
@@ -9344,7 +9236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483587466216894</v>
+        <v>1.500648311621615</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.020347460067121</v>
@@ -9433,7 +9325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.491913789177168</v>
+        <v>1.51259219007702</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.063827285984754</v>
@@ -9522,7 +9414,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.495776267454864</v>
+        <v>1.518590600480558</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.048195800632126</v>
@@ -9611,7 +9503,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.494236213429588</v>
+        <v>1.516990437643037</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.015528734116927</v>
@@ -9700,7 +9592,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.505800465529477</v>
+        <v>1.523331472130625</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.954273676388744</v>
@@ -9789,7 +9681,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562812303177523</v>
+        <v>1.578833223390986</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.919067216371579</v>
@@ -9878,7 +9770,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.5317541535086</v>
+        <v>1.542282537076322</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.005945444153476</v>
@@ -9967,7 +9859,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.520224390691932</v>
+        <v>1.528394828563935</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.950229598805556</v>
@@ -10056,7 +9948,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.53323780681061</v>
+        <v>1.537043062028612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.983587044193597</v>
@@ -10145,7 +10037,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542732304293297</v>
+        <v>1.548254192315981</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.973737863702111</v>
@@ -10234,7 +10126,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551173392659949</v>
+        <v>1.559791259339609</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.010879770194316</v>
@@ -10323,7 +10215,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.551624424283088</v>
+        <v>1.560265035041521</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.009723180640085</v>
@@ -10609,7 +10501,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.305590649668634</v>
+        <v>1.318184396122662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.156347417250332</v>
@@ -10698,7 +10590,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.324019883867015</v>
+        <v>1.335438296429639</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.085930746824205</v>
@@ -10787,7 +10679,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.349110880761075</v>
+        <v>1.356518812976224</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.077033246615107</v>
@@ -10876,7 +10768,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.367143599399518</v>
+        <v>1.370153250086283</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.030636419288586</v>
@@ -10965,7 +10857,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433858429673088</v>
+        <v>1.432933009506263</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.997942492044119</v>
@@ -11054,7 +10946,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.403090468927831</v>
+        <v>1.402708749021952</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.928571674700897</v>
@@ -11143,7 +11035,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.413019730095244</v>
+        <v>1.416425757402123</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.876927783731039</v>
@@ -11232,7 +11124,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.448077362352117</v>
+        <v>1.449849885329603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.929830143472477</v>
@@ -11321,7 +11213,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.44238285799413</v>
+        <v>1.44625822029883</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.978054983196325</v>
@@ -11410,7 +11302,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.432855015591847</v>
+        <v>1.439671409348595</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.962244116747572</v>
@@ -11499,7 +11391,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.439840927075154</v>
+        <v>1.444893698679249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.999270782575081</v>
@@ -11588,7 +11480,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.447356520375312</v>
+        <v>1.451678237203454</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.943279360231073</v>
@@ -11677,7 +11569,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.44336787055313</v>
+        <v>1.442541863200872</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.004725607690676</v>
@@ -11766,7 +11658,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.396734208449258</v>
+        <v>1.397281707592232</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.966581975426476</v>
@@ -11855,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.384979110733889</v>
+        <v>1.377033463524198</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.007420365114539</v>
@@ -11944,7 +11836,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.382841000791805</v>
+        <v>1.380644563864746</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.055613490769757</v>
@@ -12033,7 +11925,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.364625036597888</v>
+        <v>1.363193192044307</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.144113278914409</v>
@@ -12122,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.35230874963662</v>
+        <v>1.350773415432689</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.147486952756081</v>
@@ -12211,7 +12103,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.357985697323537</v>
+        <v>1.355446080985597</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.194852800896356</v>
@@ -12300,7 +12192,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.35647526903153</v>
+        <v>1.349609821047351</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.196607997191643</v>
@@ -12389,7 +12281,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.38447391744669</v>
+        <v>1.378806951468132</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.120766675740696</v>
@@ -12478,7 +12370,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.387255991359618</v>
+        <v>1.38114407772001</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.273288464299827</v>
@@ -12567,7 +12459,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388173395546964</v>
+        <v>1.384339218849481</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.214832114990248</v>
@@ -12656,7 +12548,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.387143624389107</v>
+        <v>1.382752483893229</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.281478242136695</v>
@@ -12745,7 +12637,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.380666936333427</v>
+        <v>1.374500908865226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.304780015285758</v>
@@ -12834,7 +12726,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.348814467738554</v>
+        <v>1.34533099841212</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.326450968660333</v>
@@ -12923,7 +12815,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.347471207563873</v>
+        <v>1.343932358972968</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.243758181983493</v>
@@ -13012,7 +12904,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.350674652520201</v>
+        <v>1.347675083345386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.25494423109406</v>
@@ -13101,7 +12993,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.382884047020705</v>
+        <v>1.376356778028716</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.123101135059048</v>
@@ -13190,7 +13082,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.403521948020972</v>
+        <v>1.395907375309551</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.224986795904653</v>
@@ -13279,7 +13171,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.395403408000463</v>
+        <v>1.389805954793192</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.284840944847805</v>
@@ -13368,7 +13260,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.427897621928508</v>
+        <v>1.420209730116881</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.140863471018372</v>
@@ -13457,7 +13349,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.428535707166082</v>
+        <v>1.421971079745541</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.058985497097489</v>
@@ -13546,7 +13438,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.423043351585152</v>
+        <v>1.41875084482727</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.072582556736938</v>
@@ -13635,7 +13527,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436621631780778</v>
+        <v>1.430256315276884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.09020655240275</v>
@@ -13724,7 +13616,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.425735609674473</v>
+        <v>1.420549265121138</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.055487021051493</v>
@@ -13813,7 +13705,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.427311793181871</v>
+        <v>1.42697958880396</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.098404390440503</v>
@@ -13902,7 +13794,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.412449818264054</v>
+        <v>1.411430072113266</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.081465166052185</v>
@@ -13991,7 +13883,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.416796334383889</v>
+        <v>1.418560835273749</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.020897907309569</v>
@@ -14080,7 +13972,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.420637776216541</v>
+        <v>1.423877681964743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.057932616754766</v>
@@ -14169,7 +14061,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.496913862116694</v>
+        <v>1.500772718632588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.234319884912381</v>
@@ -14258,7 +14150,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.521592507876002</v>
+        <v>1.534690747563546</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.453443992147875</v>
@@ -14347,7 +14239,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.552014510860728</v>
+        <v>1.56770972389587</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.529405594224249</v>
@@ -14436,7 +14328,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558440310725675</v>
+        <v>1.579411756233412</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.555106210332518</v>
@@ -14525,7 +14417,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.575339455874611</v>
+        <v>1.598199107633199</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.62301533478018</v>
@@ -14614,7 +14506,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591563213475579</v>
+        <v>1.611966061784825</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.725592421863109</v>
@@ -14703,7 +14595,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607140873008759</v>
+        <v>1.626846434286354</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.56562619440377</v>
@@ -14792,7 +14684,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587414431281292</v>
+        <v>1.603297427658583</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.464174962091934</v>
@@ -14881,7 +14773,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548858970766064</v>
+        <v>1.561311612464783</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.542409695936326</v>
@@ -14970,7 +14862,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.527179059370849</v>
+        <v>1.543021646645851</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.583731190988854</v>
@@ -15059,7 +14951,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.543836133431147</v>
+        <v>1.561309822337092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.606970849713193</v>
@@ -15148,7 +15040,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552673473853163</v>
+        <v>1.569693121664172</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.472285642569522</v>
@@ -15237,7 +15129,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.567943944711828</v>
+        <v>1.583507925078037</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.619418703656951</v>
@@ -15326,7 +15218,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.576763487299531</v>
+        <v>1.590095275905756</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.48827296087503</v>
@@ -15415,7 +15307,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.604245616553223</v>
+        <v>1.616293505980801</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.373634435205894</v>
@@ -15504,7 +15396,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.597480619213234</v>
+        <v>1.605459884638856</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.262472828786113</v>
@@ -15593,7 +15485,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590070673031027</v>
+        <v>1.590037278625686</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.45291933729389</v>
@@ -15682,7 +15574,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.524004011262915</v>
+        <v>1.516434509212354</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.285440262458323</v>
@@ -15771,7 +15663,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.466884668816808</v>
+        <v>1.473527998778349</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.373608921594226</v>
@@ -15860,7 +15752,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.459275879908228</v>
+        <v>1.461674705857081</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.385221920154452</v>
@@ -15949,7 +15841,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458949169181109</v>
+        <v>1.469067999192393</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.374934174156287</v>
@@ -16235,7 +16127,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.519786216845139</v>
+        <v>1.562348837166388</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.233391490454848</v>
@@ -16324,7 +16216,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.531280099338524</v>
+        <v>1.55901254933595</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.264982728286458</v>
@@ -16413,7 +16305,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47431383606438</v>
+        <v>1.488922459684505</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.132057895885936</v>
@@ -16502,7 +16394,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.394165266176693</v>
+        <v>1.397321555762131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.04296955130097</v>
@@ -16591,7 +16483,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.383772781864529</v>
+        <v>1.382930300891858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.917636731940402</v>
@@ -16680,7 +16572,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.389065168101371</v>
+        <v>1.386886361358787</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.831701112649619</v>
@@ -16769,7 +16661,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.382106589476873</v>
+        <v>1.381181478233944</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.903997882528584</v>
@@ -16858,7 +16750,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.384630627473538</v>
+        <v>1.378501337369658</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.806067065046836</v>
@@ -16947,7 +16839,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.372363124765017</v>
+        <v>1.369033876799604</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.850378880153521</v>
@@ -17036,7 +16928,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.37560895656465</v>
+        <v>1.370266405279696</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.809505109400552</v>
@@ -17125,7 +17017,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.374028656574881</v>
+        <v>1.369207537292315</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.847121642042854</v>
@@ -17214,7 +17106,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370154280095961</v>
+        <v>1.366626962608596</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.838925873846496</v>
@@ -17303,7 +17195,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.382834978299519</v>
+        <v>1.377648007793584</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.846826086021389</v>
@@ -17392,7 +17284,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.406924252480387</v>
+        <v>1.39069017973785</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.814647129050785</v>
@@ -17481,7 +17373,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.424984294180775</v>
+        <v>1.426378739854057</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.933205453451619</v>
@@ -17570,7 +17462,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.459998976487892</v>
+        <v>1.474581102345382</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.057225824988965</v>
@@ -17659,7 +17551,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.444584392804188</v>
+        <v>1.454518383097199</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.108995598209307</v>
@@ -17748,7 +17640,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443625601780751</v>
+        <v>1.452998545797078</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.193415116266422</v>
@@ -17837,7 +17729,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.496769625628624</v>
+        <v>1.513698322211833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.169861937752149</v>
@@ -17926,7 +17818,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516865858094472</v>
+        <v>1.533066010771929</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.103346138037526</v>
@@ -18015,7 +17907,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.516692538842657</v>
+        <v>1.529882414490431</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.100900318523039</v>
@@ -18104,7 +17996,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.522319063448085</v>
+        <v>1.535745154644785</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.137382873145374</v>
@@ -18193,7 +18085,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519791106408887</v>
+        <v>1.534435768878</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.138013444686684</v>
@@ -18282,7 +18174,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.530686166276506</v>
+        <v>1.544788444338633</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.142200589718382</v>
@@ -18371,7 +18263,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530882215446818</v>
+        <v>1.542137825908239</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.132429126349174</v>
@@ -18460,7 +18352,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536425006218589</v>
+        <v>1.546441823082043</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.104006642197265</v>
@@ -18549,7 +18441,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543416864448916</v>
+        <v>1.55138731890032</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.13159491401293</v>
@@ -18638,7 +18530,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536039972945453</v>
+        <v>1.545956296783179</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.189990646668352</v>
@@ -18727,7 +18619,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.572090289115594</v>
+        <v>1.5813406838016</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.009351739336475</v>
@@ -18816,7 +18708,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588486120566952</v>
+        <v>1.582649745781271</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.075551134196641</v>
@@ -18905,7 +18797,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55747322895999</v>
+        <v>1.53618842920175</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.27349703384412</v>
@@ -18994,7 +18886,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.620918059087856</v>
+        <v>1.59696142981282</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.719614927764232</v>
@@ -19083,7 +18975,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.603235674549017</v>
+        <v>1.579271584179595</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.869765134830105</v>
@@ -19172,7 +19064,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598745633443242</v>
+        <v>1.5740744275747</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.000873849191886</v>
@@ -19261,7 +19153,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.577574766483588</v>
+        <v>1.550999865918335</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.767615806838589</v>
@@ -19350,7 +19242,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.432231503705059</v>
+        <v>1.416894170611626</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.655765306543576</v>
@@ -19439,7 +19331,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.411013816908759</v>
+        <v>1.397929215185615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.661481533477828</v>
@@ -19528,7 +19420,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.404939077443774</v>
+        <v>1.392841230847605</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.664365747232287</v>
@@ -19617,7 +19509,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.384656434479302</v>
+        <v>1.374903391669952</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.658691627216383</v>
@@ -19706,7 +19598,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.390726464243325</v>
+        <v>1.385723297090657</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.665363887709747</v>
@@ -19795,7 +19687,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.415445173959693</v>
+        <v>1.414067230599793</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.680150802054634</v>
@@ -19884,7 +19776,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.431669237994887</v>
+        <v>1.435179441125118</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.677790881085858</v>
@@ -19973,7 +19865,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.448100341015539</v>
+        <v>1.454937488482457</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.726643244509186</v>
@@ -20062,7 +19954,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455476348592176</v>
+        <v>1.466378210850413</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.72536218531661</v>
@@ -20151,7 +20043,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456031608505974</v>
+        <v>1.470530254141468</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.742491162744271</v>
@@ -20240,7 +20132,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.462287161196456</v>
+        <v>1.478114714281863</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.743116528233303</v>
@@ -20329,7 +20221,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.480327591302472</v>
+        <v>1.501959643368536</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.705360403333698</v>
@@ -20418,7 +20310,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477569621595024</v>
+        <v>1.500540121207004</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.746037949356809</v>
@@ -20507,7 +20399,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.480962738676024</v>
+        <v>1.504398665031867</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.745089370233464</v>
@@ -20596,7 +20488,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.489425238332962</v>
+        <v>1.514363781418366</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.77021416474759</v>
@@ -20685,7 +20577,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628063057473179</v>
+        <v>1.658613075037044</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.36165125858496</v>
@@ -20774,7 +20666,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.641872352199222</v>
+        <v>1.672375747277863</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.974247683407131</v>
@@ -20863,7 +20755,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670633393066066</v>
+        <v>1.698789550471408</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.139312229461115</v>
@@ -20952,7 +20844,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.694278657945906</v>
+        <v>1.720743525802854</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.171771514889507</v>
@@ -21041,7 +20933,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.688910230969195</v>
+        <v>1.716321993159192</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.79710921671396</v>
@@ -21130,7 +21022,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.644735239062327</v>
+        <v>1.671460961603603</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.726109604904016</v>
@@ -21219,7 +21111,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.643282218753296</v>
+        <v>1.666892300267071</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.712468092152123</v>
@@ -21308,7 +21200,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624599521253565</v>
+        <v>1.646396915379863</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.773995336803299</v>
@@ -21397,7 +21289,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621091841617628</v>
+        <v>1.645833604824971</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.031185155129911</v>
@@ -21486,7 +21378,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640179352667489</v>
+        <v>1.660048240297562</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.809117757628948</v>
@@ -21575,7 +21467,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.64192450185403</v>
+        <v>1.665120723408811</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.762090349089099</v>
@@ -21861,7 +21753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.572807526753989</v>
+        <v>1.581173163014056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.503130673738532</v>
@@ -21950,7 +21842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.581794847978815</v>
+        <v>1.588952855792966</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465447804194163</v>
@@ -22039,7 +21931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.537553199602647</v>
+        <v>1.534400421921891</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.379349471506598</v>
@@ -22128,7 +22020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5050000793863</v>
+        <v>1.494667738691311</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.302044149683745</v>
@@ -22217,7 +22109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464898599649117</v>
+        <v>1.441816115981768</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.303420964509407</v>
@@ -22306,7 +22198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470361608375087</v>
+        <v>1.464333115511564</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.375228693773446</v>
@@ -22395,7 +22287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470430850863369</v>
+        <v>1.460924655214452</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.234708154696342</v>
@@ -22484,7 +22376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.492353124323021</v>
+        <v>1.47986038109189</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.880758538609502</v>
@@ -22573,7 +22465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506929685117547</v>
+        <v>1.493491340582452</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.716575945698168</v>
@@ -22662,7 +22554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.521710289710287</v>
+        <v>1.506382380750921</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.648217963987497</v>
@@ -22751,7 +22643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528058702049916</v>
+        <v>1.516814527935375</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.691998884493738</v>
@@ -22840,7 +22732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.532462993722703</v>
+        <v>1.519752340293482</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.86525489058447</v>
@@ -22929,7 +22821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530682871832685</v>
+        <v>1.517864477803448</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.735259727338855</v>
@@ -23018,7 +22910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.484400773013452</v>
+        <v>1.459769536667123</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.910624446637851</v>
@@ -23107,7 +22999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.462322188368583</v>
+        <v>1.447417686026829</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.920149759551039</v>
@@ -23196,7 +23088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457942729899288</v>
+        <v>1.448925535435862</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.056718176119485</v>
@@ -23285,7 +23177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.451057725364848</v>
+        <v>1.426451815352506</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.092848579640751</v>
@@ -23374,7 +23266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.448574417936661</v>
+        <v>1.42514418527609</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.165047686685112</v>
@@ -23463,7 +23355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.446986156974388</v>
+        <v>1.426120544121954</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.168864783230778</v>
@@ -23552,7 +23444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458524206886038</v>
+        <v>1.439008460850733</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.135868003221997</v>
@@ -23641,7 +23533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.462466042556967</v>
+        <v>1.442774795421514</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.204080981543821</v>
@@ -23730,7 +23622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.465065927948643</v>
+        <v>1.445412127818942</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.179543704579425</v>
@@ -23819,7 +23711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.466677243480054</v>
+        <v>1.449504644302838</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.185512530069123</v>
@@ -23908,7 +23800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465963831397262</v>
+        <v>1.449811708459347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.197480378438698</v>
@@ -23997,7 +23889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463494301412141</v>
+        <v>1.448192421296154</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.186550072079382</v>
@@ -24086,7 +23978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.447080869001656</v>
+        <v>1.431075398727747</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.206462549642533</v>
@@ -24175,7 +24067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.447459830565218</v>
+        <v>1.433000338345688</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.235331657844021</v>
@@ -24264,7 +24156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.447748909484828</v>
+        <v>1.433472202266755</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.242035643999402</v>
@@ -24353,7 +24245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.473298275797669</v>
+        <v>1.460103413793541</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.246082094365433</v>
@@ -24442,7 +24334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.501741104750921</v>
+        <v>1.482754527313043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.201225256999409</v>
@@ -24531,7 +24423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.481230382832574</v>
+        <v>1.467625472060566</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.446651964267218</v>
@@ -24620,7 +24512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508460821938203</v>
+        <v>1.50616931081034</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.186695909750711</v>
@@ -24709,7 +24601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496778901383588</v>
+        <v>1.49757388813298</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.441124742057645</v>
@@ -24798,7 +24690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.506703971197651</v>
+        <v>1.506229557946554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.636373538215252</v>
@@ -24887,7 +24779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.502523112651337</v>
+        <v>1.501301674911304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.581330701836333</v>
@@ -24976,7 +24868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.500706700698718</v>
+        <v>1.500052800567765</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.594102815946078</v>
@@ -25065,7 +24957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.49970496722926</v>
+        <v>1.496464570547708</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.5124913338903</v>
@@ -25154,7 +25046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.490169789689614</v>
+        <v>1.487415163990017</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.501026003794983</v>
@@ -25243,7 +25135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.497143166244754</v>
+        <v>1.48974013039373</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.49632610687346</v>
@@ -25332,7 +25224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553905944271086</v>
+        <v>1.545266360536859</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.427318080209071</v>
@@ -25421,7 +25313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665391427331497</v>
+        <v>1.663973442886592</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.498967467457512</v>
@@ -25510,7 +25402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.737831537209072</v>
+        <v>1.739025975364061</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.079845227702028</v>
@@ -25599,7 +25491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.790996180275622</v>
+        <v>1.79329112754549</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.336435239973327</v>
@@ -25688,7 +25580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.826298720844614</v>
+        <v>1.833676959909169</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.495050117256463</v>
@@ -25777,7 +25669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.83811807844183</v>
+        <v>1.848500146566255</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.408586342856144</v>
@@ -25866,7 +25758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.868669348965398</v>
+        <v>1.880541318292483</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.498138904194077</v>
@@ -25955,7 +25847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.891734542583568</v>
+        <v>1.901338338541893</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.810506038346599</v>
@@ -26044,7 +25936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.910008041487252</v>
+        <v>1.920180429934149</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.141161101635407</v>
@@ -26133,7 +26025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.92281044227485</v>
+        <v>1.938220395957907</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.313359601423881</v>
@@ -26222,7 +26114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.931084191077343</v>
+        <v>1.943191704980592</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.536310332559795</v>
@@ -26311,7 +26203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.947606868255948</v>
+        <v>1.957342047331561</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.477825028699261</v>
@@ -26400,7 +26292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.950770136933121</v>
+        <v>1.960946462016841</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.911089451738187</v>
@@ -26489,7 +26381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.95997028394806</v>
+        <v>1.969598636657025</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.854619766058424</v>
@@ -26578,7 +26470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.966425372727278</v>
+        <v>1.974558302721832</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.771685704669153</v>
@@ -26667,7 +26559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.975473168624494</v>
+        <v>1.984582153955109</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.658643356591854</v>
@@ -26756,7 +26648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.968407841753825</v>
+        <v>1.977326739854929</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.418389544875581</v>
@@ -26845,7 +26737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.95683949653694</v>
+        <v>1.967750901783681</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.622967788164487</v>
@@ -26934,7 +26826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.933487961845832</v>
+        <v>1.946093753537159</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.394310835111296</v>
@@ -27023,7 +26915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.908999874581434</v>
+        <v>1.925060905918508</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.874029145210409</v>
@@ -27112,7 +27004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.903159239774151</v>
+        <v>1.916876718798027</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.299593968076205</v>
@@ -27201,7 +27093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.893005923433003</v>
+        <v>1.906359257729543</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.666273119261802</v>
@@ -27487,7 +27379,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.570648894424947</v>
+        <v>1.602965257056625</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.332622862978873</v>
@@ -27576,7 +27468,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605223865109023</v>
+        <v>1.623711335259564</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.371539383929453</v>
@@ -27665,7 +27557,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560551740572944</v>
+        <v>1.574470507974812</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.398828799880497</v>
@@ -27754,7 +27646,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515603352355025</v>
+        <v>1.523593589962042</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.083186460253318</v>
@@ -27843,7 +27735,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494725566092515</v>
+        <v>1.491768274525565</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.108698412221044</v>
@@ -27932,7 +27824,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.488476025726488</v>
+        <v>1.491568402589722</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.142270215610556</v>
@@ -28021,7 +27913,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478610952691584</v>
+        <v>1.476224415371793</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.091734583817201</v>
@@ -28110,7 +28002,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.461286533023995</v>
+        <v>1.456594846347607</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.018857296588328</v>
@@ -28199,7 +28091,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.458584169381261</v>
+        <v>1.452162026723252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.080635588808143</v>
@@ -28288,7 +28180,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465923780579472</v>
+        <v>1.458157511376168</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.078402260396754</v>
@@ -28377,7 +28269,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522796806923683</v>
+        <v>1.517954137540122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.908143423711525</v>
@@ -28466,7 +28358,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.525047205549764</v>
+        <v>1.517544504367149</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.005949331598232</v>
@@ -28555,7 +28447,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.515284950270872</v>
+        <v>1.505970775196887</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.926673547483446</v>
@@ -28644,7 +28536,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.461810337028679</v>
+        <v>1.453252897226989</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.041765467134385</v>
@@ -28733,7 +28625,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.447725296654679</v>
+        <v>1.441961913991419</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.927971042504168</v>
@@ -28822,7 +28714,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442311872258462</v>
+        <v>1.447035202909049</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.007105861720745</v>
@@ -28911,7 +28803,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.457761779313595</v>
+        <v>1.462325316900919</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.127239433734854</v>
@@ -29000,7 +28892,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.448104728754726</v>
+        <v>1.455716771471273</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.144779482061804</v>
@@ -29089,7 +28981,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.451780101611235</v>
+        <v>1.462197613631955</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.169311789949197</v>
@@ -29178,7 +29070,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.465540951341028</v>
+        <v>1.477069016326005</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.165207733401755</v>
@@ -29267,7 +29159,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.469900675582289</v>
+        <v>1.479871746813328</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.167347085115687</v>
@@ -29356,7 +29248,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.471603371374935</v>
+        <v>1.480101688794491</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.175815604703879</v>
@@ -29445,7 +29337,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.463255499629264</v>
+        <v>1.47207748383195</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.224659736150915</v>
@@ -29534,7 +29426,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.454005387743611</v>
+        <v>1.466053957786472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.205238091453138</v>
@@ -29623,7 +29515,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.446885953392888</v>
+        <v>1.460668796304092</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.171518299070296</v>
@@ -29712,7 +29604,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.444631800753979</v>
+        <v>1.456933014395087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.21909244644587</v>
@@ -29801,7 +29693,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.436129470636922</v>
+        <v>1.449739755298721</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.224477345409655</v>
@@ -29890,7 +29782,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.428816504629779</v>
+        <v>1.441869069217314</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.200068074757404</v>
@@ -29979,7 +29871,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.451863715301252</v>
+        <v>1.461640456162758</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.050539550067946</v>
@@ -30068,7 +29960,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.472919318443211</v>
+        <v>1.486178234654814</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.279922212078439</v>
@@ -30157,7 +30049,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.439683985475033</v>
+        <v>1.438812418130796</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.658302478024325</v>
@@ -30246,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.422603063789402</v>
+        <v>1.416065895054626</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.207519796097622</v>
@@ -30335,7 +30227,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.40935063991849</v>
+        <v>1.398690679822607</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.260727312222094</v>
@@ -30424,7 +30316,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.390294222111725</v>
+        <v>1.381735578501344</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.616032992078113</v>
@@ -30513,7 +30405,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.373669205707378</v>
+        <v>1.359910332404059</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.455267430643946</v>
@@ -30602,7 +30494,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.361210550701722</v>
+        <v>1.344723028953184</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.386358825690104</v>
@@ -30691,7 +30583,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.359590949274154</v>
+        <v>1.347728329415514</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.284365720183593</v>
@@ -30780,7 +30672,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.360702047723643</v>
+        <v>1.344368707572788</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.151419493788691</v>
@@ -30869,7 +30761,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.360819640439344</v>
+        <v>1.345938421391819</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.470967155876259</v>
@@ -30958,7 +30850,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.401643858976453</v>
+        <v>1.398232405082413</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.307455344467501</v>
@@ -31047,7 +30939,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.498238490758397</v>
+        <v>1.506861453537703</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.306007173491585</v>
@@ -31136,7 +31028,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59063677098336</v>
+        <v>1.6117181741626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.876119540646335</v>
@@ -31225,7 +31117,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661870126847449</v>
+        <v>1.689250525355336</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.026686056390226</v>
@@ -31314,7 +31206,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711456969587947</v>
+        <v>1.743073957578928</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.195294936635976</v>
@@ -31403,7 +31295,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.729768961524687</v>
+        <v>1.762015825592981</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.29190280806125</v>
@@ -31492,7 +31384,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.786291979100351</v>
+        <v>1.818617819952294</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.320156289263546</v>
@@ -31581,7 +31473,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.822398397240274</v>
+        <v>1.851127863524833</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.226472621676593</v>
@@ -31670,7 +31562,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.845004865112124</v>
+        <v>1.874620102519372</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.603201085365471</v>
@@ -31759,7 +31651,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.870387118827167</v>
+        <v>1.899296643262144</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.776694675326682</v>
@@ -31848,7 +31740,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.88588364790756</v>
+        <v>1.910861650842861</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.133817772006582</v>
@@ -31937,7 +31829,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.900640000069605</v>
+        <v>1.924221553908412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.204226181960635</v>
@@ -32026,7 +31918,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.902302182825258</v>
+        <v>1.924857215246579</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.364173619359969</v>
@@ -32115,7 +32007,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.915642922103275</v>
+        <v>1.936383322088487</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.494937850259278</v>
@@ -32204,7 +32096,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.921888864006629</v>
+        <v>1.941976666964337</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.298005327522721</v>
@@ -32293,7 +32185,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.942793119686371</v>
+        <v>1.957993508609451</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.72928717422475</v>
@@ -32382,7 +32274,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.938763430477753</v>
+        <v>1.952841645396358</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.689954166189986</v>
@@ -32471,7 +32363,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.926722209752313</v>
+        <v>1.939818624664046</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.453003310023757</v>
@@ -32560,7 +32452,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.906260526338494</v>
+        <v>1.920277523101882</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.012853606235252</v>
@@ -32649,7 +32541,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.88373303989022</v>
+        <v>1.898218685755296</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.689211504216777</v>
@@ -32738,7 +32630,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.879500269180212</v>
+        <v>1.887658176986761</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.572965753679452</v>
@@ -32827,7 +32719,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.861381668294728</v>
+        <v>1.875002693152273</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.602601160431965</v>
@@ -33113,7 +33005,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.558394228576269</v>
+        <v>1.569012579793326</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.449630584397873</v>
@@ -33202,7 +33094,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552293236217837</v>
+        <v>1.561851734333157</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.232074557989328</v>
@@ -33291,7 +33183,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.497410178686032</v>
+        <v>1.489240024379494</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.038797758594355</v>
@@ -33380,7 +33272,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504031924069897</v>
+        <v>1.482906024575722</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.938258329688419</v>
@@ -33469,7 +33361,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476318233853779</v>
+        <v>1.441894374478468</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.91110690867645</v>
@@ -33558,7 +33450,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519549457064035</v>
+        <v>1.495124781453439</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.349321877887581</v>
@@ -33647,7 +33539,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524439799454115</v>
+        <v>1.506330969041478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.406759449348767</v>
@@ -33736,7 +33628,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526777657192284</v>
+        <v>1.51410284590476</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.283685817423119</v>
@@ -33825,7 +33717,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.532373871036799</v>
+        <v>1.520794666306272</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.418675958542176</v>
@@ -33914,7 +33806,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543697285588906</v>
+        <v>1.534388470532478</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.491692949305489</v>
@@ -34003,7 +33895,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545206255040081</v>
+        <v>1.541168675845693</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.443287303114904</v>
@@ -34092,7 +33984,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.548793911000794</v>
+        <v>1.543442934371935</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.532841766061349</v>
@@ -34181,7 +34073,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550277269074725</v>
+        <v>1.542154004342678</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.391930001183984</v>
@@ -34270,7 +34162,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.476980825170863</v>
+        <v>1.467921453677131</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.853589425204693</v>
@@ -34359,7 +34251,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493001038013045</v>
+        <v>1.469447361882488</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.966648726820162</v>
@@ -34448,7 +34340,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.518277302063114</v>
+        <v>1.517839545256284</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.11259994675283</v>
@@ -34537,7 +34429,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524742578319921</v>
+        <v>1.512881585158135</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.159194268318893</v>
@@ -34626,7 +34518,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49562306486419</v>
+        <v>1.49461824094779</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.22984089882558</v>
@@ -34715,7 +34607,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.489496005662246</v>
+        <v>1.490686269759337</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.247089450783954</v>
@@ -34804,7 +34696,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493208187577794</v>
+        <v>1.496518709845421</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.290168891965064</v>
@@ -34893,7 +34785,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.497459119673614</v>
+        <v>1.498108678021505</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.258293431256337</v>
@@ -34982,7 +34874,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.491853153653897</v>
+        <v>1.48898839699645</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.32019445666069</v>
@@ -35071,7 +34963,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.496139695973771</v>
+        <v>1.493645032833998</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.298135762511758</v>
@@ -35160,7 +35052,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.498396141330872</v>
+        <v>1.495673070871736</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.279097026370616</v>
@@ -35249,7 +35141,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488382933493982</v>
+        <v>1.487350438773674</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.336627662184206</v>
@@ -35338,7 +35230,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.474435747349619</v>
+        <v>1.47374709451329</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.34475719489259</v>
@@ -35427,7 +35319,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.46795225247732</v>
+        <v>1.469502356485044</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.338236108225324</v>
@@ -35516,7 +35408,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467529537365122</v>
+        <v>1.469274066183309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.298322068146899</v>
@@ -35605,7 +35497,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.494519128246982</v>
+        <v>1.496840851914367</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.239586772883289</v>
@@ -35694,7 +35586,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502047981172413</v>
+        <v>1.504898868271412</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.130165998261415</v>
@@ -35783,7 +35675,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454677487076529</v>
+        <v>1.447634318879388</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.108751205439612</v>
@@ -35872,7 +35764,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.463910218034721</v>
+        <v>1.467327936136305</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.828227843965733</v>
@@ -35961,7 +35853,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.456829088043714</v>
+        <v>1.451996342252428</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.098096551890447</v>
@@ -36050,7 +35942,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469521258119032</v>
+        <v>1.46202549411773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.187505795252117</v>
@@ -36139,7 +36031,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.466417713795717</v>
+        <v>1.457717665918171</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.16117675338985</v>
@@ -36228,7 +36120,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.47468380966665</v>
+        <v>1.466685700985681</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.172152966523677</v>
@@ -36317,7 +36209,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.4838546359496</v>
+        <v>1.482936256125289</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.110004485027578</v>
@@ -36406,7 +36298,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.481190413419347</v>
+        <v>1.479815772688503</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.082662482799745</v>
@@ -36495,7 +36387,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48171180866909</v>
+        <v>1.479514553211762</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.04320593900238</v>
@@ -36584,7 +36476,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617592266245668</v>
+        <v>1.638074017565324</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.342704957746181</v>
@@ -36673,7 +36565,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.768568430183538</v>
+        <v>1.779857633235364</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.66402387414293</v>
@@ -36762,7 +36654,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.839906848653033</v>
+        <v>1.853667166596837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.045792197310825</v>
@@ -36851,7 +36743,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.884888304412496</v>
+        <v>1.904967747035257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.323210646790647</v>
@@ -36940,7 +36832,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.916373430102871</v>
+        <v>1.937596214439231</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.593982708278674</v>
@@ -37029,7 +36921,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.926877650124292</v>
+        <v>1.950334350672662</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.749504131173089</v>
@@ -37118,7 +37010,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.938859308747342</v>
+        <v>1.962790400056722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.802142569979131</v>
@@ -37207,7 +37099,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.951277932125141</v>
+        <v>1.975052625370401</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.882310741970939</v>
@@ -37296,7 +37188,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.954506747465805</v>
+        <v>1.977983036225415</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.053131120695428</v>
@@ -37385,7 +37277,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.956658057274804</v>
+        <v>1.980506806129393</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.07643631482579</v>
@@ -37474,7 +37366,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.957842308118694</v>
+        <v>1.979822635699791</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.066666584339677</v>
@@ -37563,7 +37455,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.966478028047441</v>
+        <v>1.989551243831092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.216858569374103</v>
@@ -37652,7 +37544,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.966522996191683</v>
+        <v>1.989808360024295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.396976075669834</v>
@@ -37741,7 +37633,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.968271071228176</v>
+        <v>1.990567164553337</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.368722656850609</v>
@@ -37830,7 +37722,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.974311305618224</v>
+        <v>1.994262543417105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.286076977744028</v>
@@ -37919,7 +37811,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.976492007514434</v>
+        <v>1.994926711399688</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.239449482640181</v>
@@ -38008,7 +37900,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.960887825560907</v>
+        <v>1.981839504724547</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.995167368664585</v>
@@ -38097,7 +37989,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.943526020321388</v>
+        <v>1.965015808986995</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.365694893593254</v>
@@ -38186,7 +38078,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.912755321087279</v>
+        <v>1.933528259303427</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.034892997317225</v>
@@ -38275,7 +38167,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.8667099882856</v>
+        <v>1.889158495748488</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.843119525439462</v>
@@ -38364,7 +38256,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.847679956440075</v>
+        <v>1.867815781360287</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.734242954231139</v>
@@ -38453,7 +38345,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.84022500769536</v>
+        <v>1.856742601022625</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.861892779861737</v>
